--- a/public/template_xls/template_cluster.xlsx
+++ b/public/template_xls/template_cluster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Installer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DC63D4-73B7-49CD-B4F0-F1D04A2D4D39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB245B-9F91-46DF-B54F-A10EFF260307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
+    <workbookView xWindow="5535" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,10 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,41 +408,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template_xls/template_cluster.xlsx
+++ b/public/template_xls/template_cluster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Installer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB245B-9F91-46DF-B54F-A10EFF260307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFD14A-0961-46A3-A05C-121AE2BA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +437,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{A70A6189-A9FE-4F0B-8DB5-DBED16747E63}">
+      <formula1>"Sentul,Surabaya,HO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template_xls/template_cluster.xlsx
+++ b/public/template_xls/template_cluster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFD14A-0961-46A3-A05C-121AE2BA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{66DFD14A-0961-46A3-A05C-121AE2BA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3750A1-9B68-46FC-8946-1259D3B5B338}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Data Center</t>
   </si>
@@ -49,12 +49,40 @@
   <si>
     <t>CLUSTER-1</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Note : 
+- Kolom isian tidak boleh kosong
+- Pastikan seluruh kolom yang kosong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dihapus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +94,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,9 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,27 +459,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/public/template_xls/template_cluster.xlsx
+++ b/public/template_xls/template_cluster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{66DFD14A-0961-46A3-A05C-121AE2BA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3750A1-9B68-46FC-8946-1259D3B5B338}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC7C29-5A5A-4612-A540-FB01F07C11F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -47,12 +47,13 @@
     <t>Sentul</t>
   </si>
   <si>
-    <t>CLUSTER-1</t>
+    <t>Cluster Contoh</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">*Note : 
 - Kolom isian tidak boleh kosong
+- Data Center diisi dengan cara memilih dropdown yang sudah tersedia
 - Pastikan seluruh kolom yang kosong </t>
     </r>
     <r>
@@ -134,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,13 +472,13 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -499,5 +503,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>